--- a/ExcelExampleNew.xlsx
+++ b/ExcelExampleNew.xlsx
@@ -505,22 +505,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45138.80193587963</v>
+        <v>45139.786130451386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>45138.801936041666</v>
+        <v>45139.78613064815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>45138.0</v>
+        <v>45139.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>45138.80193606482</v>
+        <v>45139.78613065972</v>
       </c>
     </row>
   </sheetData>
